--- a/recipies.xlsx
+++ b/recipies.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dthess/Documents/Sites/DSTCrockPotsCalcFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA50CF51-BCDF-D244-B269-8E4EF26485C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C90CBA-D4D0-7F44-95E6-4DE20C9DBBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{036ACE1D-E166-A541-B647-B8529897E253}"/>
+    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{036ACE1D-E166-A541-B647-B8529897E253}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ingredients" sheetId="3" r:id="rId1"/>
+    <sheet name="recipies" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +34,404 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+  <si>
+    <t>meats</t>
+  </si>
+  <si>
+    <t>Batilisk Wing</t>
+  </si>
+  <si>
+    <t>Drumstick</t>
+  </si>
+  <si>
+    <t>Eel</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Frog Legs</t>
+  </si>
+  <si>
+    <t>Koalefant Trunk</t>
+  </si>
+  <si>
+    <t>Winter Koalefant Trunk</t>
+  </si>
+  <si>
+    <t>Leafy Meat</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Monster Meat</t>
+  </si>
+  <si>
+    <t>Morsel</t>
+  </si>
+  <si>
+    <t>Guardian's Horn</t>
+  </si>
+  <si>
+    <t>Deerclops Eyeball</t>
+  </si>
+  <si>
+    <t>Cooked Eel</t>
+  </si>
+  <si>
+    <t>Cooked Fish</t>
+  </si>
+  <si>
+    <t>Cooked Frog Legs</t>
+  </si>
+  <si>
+    <t>Koalefant Trunk Steak</t>
+  </si>
+  <si>
+    <t>Cooked Leafy Meat</t>
+  </si>
+  <si>
+    <t>Cooked Meat</t>
+  </si>
+  <si>
+    <t>Cooked Monster Meat</t>
+  </si>
+  <si>
+    <t>Cooked Morsel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ing1</t>
+  </si>
+  <si>
+    <t>ing2</t>
+  </si>
+  <si>
+    <t>ing3</t>
+  </si>
+  <si>
+    <t>ing4</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>sanity</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>ingredient</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>Fried Drumbstick</t>
+  </si>
+  <si>
+    <t>Jerky</t>
+  </si>
+  <si>
+    <t>Small Jerky</t>
+  </si>
+  <si>
+    <t>Cooked Batalisk Wing</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Monster Food</t>
+  </si>
+  <si>
+    <t>Durian</t>
+  </si>
+  <si>
+    <t>Extra Smelly*</t>
+  </si>
+  <si>
+    <t>Mob Drops</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Butterfly Wings</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Cooked Egg</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>Phlegm</t>
+  </si>
+  <si>
+    <t>Tallbird Egg</t>
+  </si>
+  <si>
+    <t>Fried Tallbird Egg*</t>
+  </si>
+  <si>
+    <t>TallBird Egg Hatching*</t>
+  </si>
+  <si>
+    <t>Electric Milk</t>
+  </si>
+  <si>
+    <t>Glommer's Goop</t>
+  </si>
+  <si>
+    <t>Moon Moth Wings</t>
+  </si>
+  <si>
+    <t>Royal Jelly</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Pop Corn</t>
+  </si>
+  <si>
+    <t>Roasted Carrot*</t>
+  </si>
+  <si>
+    <t>Eggplant</t>
+  </si>
+  <si>
+    <t>Braised Eggplant*</t>
+  </si>
+  <si>
+    <t>Foliage</t>
+  </si>
+  <si>
+    <t>Glow Berry</t>
+  </si>
+  <si>
+    <t>Lichen</t>
+  </si>
+  <si>
+    <t>Mandrake</t>
+  </si>
+  <si>
+    <t>Cooked Mandrake</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Hot Pumpkin</t>
+  </si>
+  <si>
+    <t>Red Cap</t>
+  </si>
+  <si>
+    <t>Cooked Red Cap</t>
+  </si>
+  <si>
+    <t>Green Cap</t>
+  </si>
+  <si>
+    <t>Cooked Green Cap</t>
+  </si>
+  <si>
+    <t>Blue Cap</t>
+  </si>
+  <si>
+    <t>Cooked Blue Cap</t>
+  </si>
+  <si>
+    <t>Petals</t>
+  </si>
+  <si>
+    <t>Dark Petals*</t>
+  </si>
+  <si>
+    <t>Cactus Flesh</t>
+  </si>
+  <si>
+    <t>Cooked Cactus Flesh</t>
+  </si>
+  <si>
+    <t>Cactus Flower</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>Cooked Asparagus</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Roasted Garlic*</t>
+  </si>
+  <si>
+    <t>Kelp Fronds</t>
+  </si>
+  <si>
+    <t>Cooked Kelp Fronds</t>
+  </si>
+  <si>
+    <t>Dried Kelp Fronds*</t>
+  </si>
+  <si>
+    <t>Lesser Glow Berry</t>
+  </si>
+  <si>
+    <t>OnionRoasted Onion*</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Roasted Pepper*</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Roasted Potato*</t>
+  </si>
+  <si>
+    <t>Ripe Stone Fruit</t>
+  </si>
+  <si>
+    <t>Cooked Ripe Stone Fruit</t>
+  </si>
+  <si>
+    <t>Succulent</t>
+  </si>
+  <si>
+    <t>Toma Root</t>
+  </si>
+  <si>
+    <t>Roasted Toma Root</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Barries</t>
+  </si>
+  <si>
+    <t>Roasted Berries*</t>
+  </si>
+  <si>
+    <t>Dragon Fruit</t>
+  </si>
+  <si>
+    <t>Prepared Dragon Fruit*</t>
+  </si>
+  <si>
+    <t>Extra Smelly Durian*</t>
+  </si>
+  <si>
+    <t>Pomegranate</t>
+  </si>
+  <si>
+    <t>Sliced Pomegranate*</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Cooked Banana</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>Grilled Watermelon*</t>
+  </si>
+  <si>
+    <t>Juicy Berries</t>
+  </si>
+  <si>
+    <t>Roasted Juicy Berries*</t>
+  </si>
+  <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
+  <si>
+    <t>Rotten Egg</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
+    <t>Toasted Seeds*</t>
+  </si>
+  <si>
+    <t>Crop Seeds</t>
+  </si>
+  <si>
+    <t>Birchnut</t>
+  </si>
+  <si>
+    <t>Roasted Birchnut*</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Lune Tree Blossom</t>
+  </si>
+  <si>
+    <t>Twig</t>
+  </si>
+  <si>
+    <t>Inedibles</t>
+  </si>
+  <si>
+    <t>Bone Shards</t>
+  </si>
+  <si>
+    <t>Nightmare Fuel</t>
+  </si>
+  <si>
+    <t>Volt Goat Horn</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +465,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,13 +783,710 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424ED68C-D496-4342-81EE-3B53CD651D96}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A61271-92CA-3444-B094-6E5C25D34FB5}">
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E480F53-8A80-6F4D-9FE7-7866E8CFEE97}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/recipies.xlsx
+++ b/recipies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dthess/Documents/Sites/DSTCrockPotsCalcFE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C90CBA-D4D0-7F44-95E6-4DE20C9DBBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B351D692-3DC7-E741-92A6-EA50A6A19ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{036ACE1D-E166-A541-B647-B8529897E253}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{036ACE1D-E166-A541-B647-B8529897E253}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredients" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="471">
   <si>
     <t>meats</t>
   </si>
@@ -430,16 +430,1048 @@
   </si>
   <si>
     <t>Volt Goat Horn</t>
+  </si>
+  <si>
+    <t>Asparagazpacho</t>
+  </si>
+  <si>
+    <t>Asparagus Soup</t>
+  </si>
+  <si>
+    <t>Anti-Ingredients</t>
+  </si>
+  <si>
+    <t>anti1</t>
+  </si>
+  <si>
+    <t>anti2</t>
+  </si>
+  <si>
+    <t>anti3</t>
+  </si>
+  <si>
+    <t>anti4</t>
+  </si>
+  <si>
+    <t>Bacon and Eggs</t>
+  </si>
+  <si>
+    <t>Banana Pop</t>
+  </si>
+  <si>
+    <t>Banana Shake</t>
+  </si>
+  <si>
+    <t>Barnacle Linguine</t>
+  </si>
+  <si>
+    <t>Barnacle Nigiri</t>
+  </si>
+  <si>
+    <t>Barnacle Pita</t>
+  </si>
+  <si>
+    <t>Beefalo Treats</t>
+  </si>
+  <si>
+    <t>Beefy Greens</t>
+  </si>
+  <si>
+    <t>Bone Bouillon</t>
+  </si>
+  <si>
+    <t>Breakfast Skillet</t>
+  </si>
+  <si>
+    <t>Bunny Stew</t>
+  </si>
+  <si>
+    <t>Butter Muffin</t>
+  </si>
+  <si>
+    <t>California Roll</t>
+  </si>
+  <si>
+    <t>Ceviche</t>
+  </si>
+  <si>
+    <t>Creamy Potato Puree</t>
+  </si>
+  <si>
+    <t>Dragonpie</t>
+  </si>
+  <si>
+    <t>Fancy Spiralled Tubers</t>
+  </si>
+  <si>
+    <t>Fig-Stuffed Trunk</t>
+  </si>
+  <si>
+    <t>Figatoni</t>
+  </si>
+  <si>
+    <t>Figgy Frogwich</t>
+  </si>
+  <si>
+    <t>Figkabab</t>
+  </si>
+  <si>
+    <t>Fish Cordon Bleu</t>
+  </si>
+  <si>
+    <t>Fish Tacos</t>
+  </si>
+  <si>
+    <t>Flower Salad</t>
+  </si>
+  <si>
+    <t>Fresh Fruit Crepes</t>
+  </si>
+  <si>
+    <t>Froggle Bunwich</t>
+  </si>
+  <si>
+    <t>Frozen Banana Daiquiri</t>
+  </si>
+  <si>
+    <t>Fruit Medley</t>
+  </si>
+  <si>
+    <t>Glow Berry Mousse</t>
+  </si>
+  <si>
+    <t>Grim Galette</t>
+  </si>
+  <si>
+    <t>Honey Ham</t>
+  </si>
+  <si>
+    <t>Honey Nuggets</t>
+  </si>
+  <si>
+    <t>Hot Dragon Chili Salad</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Jelly Beans</t>
+  </si>
+  <si>
+    <t>Jelly Salad</t>
+  </si>
+  <si>
+    <t>Kabobs</t>
+  </si>
+  <si>
+    <t>Leafy Meatloaf</t>
+  </si>
+  <si>
+    <t>Lobster Bisque</t>
+  </si>
+  <si>
+    <t>Lobster Dinner</t>
+  </si>
+  <si>
+    <t>Mandrake Soup</t>
+  </si>
+  <si>
+    <t>Meatballs</t>
+  </si>
+  <si>
+    <t>Meaty Stew</t>
+  </si>
+  <si>
+    <t>Melonsicle</t>
+  </si>
+  <si>
+    <t>Milkmade Hat</t>
+  </si>
+  <si>
+    <t>Monster Lasagna</t>
+  </si>
+  <si>
+    <t>Monster Tartare</t>
+  </si>
+  <si>
+    <t>Moqueca</t>
+  </si>
+  <si>
+    <t>Mushy Cake</t>
+  </si>
+  <si>
+    <t>Pierogi</t>
+  </si>
+  <si>
+    <t>Plain Omelette</t>
+  </si>
+  <si>
+    <t>Powdercake</t>
+  </si>
+  <si>
+    <t>Puffed Potato Souffle</t>
+  </si>
+  <si>
+    <t>Pumpkin Cookie</t>
+  </si>
+  <si>
+    <t>Salsa Fresca</t>
+  </si>
+  <si>
+    <t>Seafood Gumbo</t>
+  </si>
+  <si>
+    <t>Soothing Tea</t>
+  </si>
+  <si>
+    <t>Spicy Chili</t>
+  </si>
+  <si>
+    <t>Steamed Twigs</t>
+  </si>
+  <si>
+    <t>Stuffed Eggplant</t>
+  </si>
+  <si>
+    <t>Stuffed Fish Heads</t>
+  </si>
+  <si>
+    <t>Stuffed Pepper Poppers</t>
+  </si>
+  <si>
+    <t>Surf n' Turf</t>
+  </si>
+  <si>
+    <t>Taffy</t>
+  </si>
+  <si>
+    <t>Tall Scotch Eggs</t>
+  </si>
+  <si>
+    <t>Trail Mix</t>
+  </si>
+  <si>
+    <t>Turkey Dinner</t>
+  </si>
+  <si>
+    <t>Unagi</t>
+  </si>
+  <si>
+    <t>Vegetable Stinger</t>
+  </si>
+  <si>
+    <t>Veggie Burger</t>
+  </si>
+  <si>
+    <t>Volt Goat Chaud-Froid</t>
+  </si>
+  <si>
+    <t>Waffles</t>
+  </si>
+  <si>
+    <t>Wet Goop</t>
+  </si>
+  <si>
+    <t>Aditional Effects</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>Cook Time</t>
+  </si>
+  <si>
+    <t>timeSecs</t>
+  </si>
+  <si>
+    <t>Collected Dust</t>
+  </si>
+  <si>
+    <t>Filler</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Edible</t>
+  </si>
+  <si>
+    <t>edible</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>Ice Bream</t>
+  </si>
+  <si>
+    <t>Portable Crockpot</t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>"-20 for 5 min"</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>dustmeringue</t>
+  </si>
+  <si>
+    <t>gazpacho</t>
+  </si>
+  <si>
+    <t>Meats</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>Warly</t>
+  </si>
+  <si>
+    <t>asparagussoup</t>
+  </si>
+  <si>
+    <t>baconeggs</t>
+  </si>
+  <si>
+    <t>"+90 hunger for Wilson"</t>
+  </si>
+  <si>
+    <t>imgURL</t>
+  </si>
+  <si>
+    <t>Amberosia</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/27/Amberosia.png/revision/latest?cb=20201015201320</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/a1/Asparagazpacho.png/revision/latest?cb=20190725213512</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/8/83/Asparagus_Soup.png/revision/latest?cb=20181017151522</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/a6/Bacon_and_Eggs.png/revision/latest?cb=20121215143942</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/f/fc/Banana_Pop.png/revision/latest?cb=20151208105712</t>
+  </si>
+  <si>
+    <t>Twigs</t>
+  </si>
+  <si>
+    <t>"+27.5 for Wendy"</t>
+  </si>
+  <si>
+    <t>cave_banana</t>
+  </si>
+  <si>
+    <t>bananajuice</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/9/96/Banana_Shake.png/revision/latest?cb=20220630185603</t>
+  </si>
+  <si>
+    <t>Barnacle</t>
+  </si>
+  <si>
+    <t>barnaclinguine</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/b1/Barnacle_Linguine.png/revision/latest?cb=20200702184248</t>
+  </si>
+  <si>
+    <t>Kelp Frond</t>
+  </si>
+  <si>
+    <t>barnaclesushi</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/4/47/Barnacle_Nigiri.png/revision/latest?cb=20200702184208</t>
+  </si>
+  <si>
+    <t>Barnacles</t>
+  </si>
+  <si>
+    <t>barnaclepita</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/6/60/Barnacle_Pita.png/revision/latest?cb=20200702184138</t>
+  </si>
+  <si>
+    <t>Other Uses</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Can be fed to Dust Moths to ornate their Tidy Hidey-Holes with Thulecite.</t>
+  </si>
+  <si>
+    <t>Forget-Me-Lots</t>
+  </si>
+  <si>
+    <t>Used to feed Beefalos and give them 300 health.</t>
+  </si>
+  <si>
+    <t>beefalotreat</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/15/Beefalo_Treats.png/revision/latest?cb=20221023193050</t>
+  </si>
+  <si>
+    <t>meatysalad</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/4/4f/Beefy_Greens.png/revision/latest?cb=20200702184505</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>bonesoup</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e3/Bone_Bouillon.png/revision/latest?cb=20190725213512</t>
+  </si>
+  <si>
+    <t>veggieomlet</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/73/Breakfast_Skillet.png/revision/latest?cb=20221023193304</t>
+  </si>
+  <si>
+    <t>"+5 for 5 seconds</t>
+  </si>
+  <si>
+    <t>bunneystew</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/1f/Bunny_Stew.png/revision/latest?cb=20211119050739</t>
+  </si>
+  <si>
+    <t>"+52.5 hunger for WX-78"</t>
+  </si>
+  <si>
+    <t>butterflymuffin</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/9/92/Butter_Muffin.png/revision/latest?cb=20121216105851</t>
+  </si>
+  <si>
+    <t>californiaroll</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/d4/California_Roll.png/revision/latest?cb=20151208105728</t>
+  </si>
+  <si>
+    <t>Fishes</t>
+  </si>
+  <si>
+    <t>"-10 for 10 seconds</t>
+  </si>
+  <si>
+    <t>"-10 for 10 seconds"</t>
+  </si>
+  <si>
+    <t>ceviche</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/4/43/Ceviche.png/revision/latest?cb=20151208105739</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>mashedpotatoes</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/d7/Creamy_Potato_Pur%C3%A9e.png/revision/latest?cb=20190725213513</t>
+  </si>
+  <si>
+    <t>Dragonfruit</t>
+  </si>
+  <si>
+    <t>dragonpie</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/2b/Dragonpie.png/revision/latest?cb=20121215232541</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Adding more than 1 Durian will result in Monster Lasagna. Adding more than 2 twigs will result in Wet Goop.</t>
+  </si>
+  <si>
+    <t>potatotornado</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e5/Fancy_Spiralled_Tubers.png/revision/latest?cb=20190728225317</t>
+  </si>
+  <si>
+    <t>Figs</t>
+  </si>
+  <si>
+    <t>koalefig_trunk</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/a1/Fig-Stuffed_Trunk.png/revision/latest?cb=20210808100724</t>
+  </si>
+  <si>
+    <t>Frog Leg</t>
+  </si>
+  <si>
+    <t>figatoni</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/f/ff/Figatoni.png/revision/latest?cb=20210727103743</t>
+  </si>
+  <si>
+    <t>frognewton</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/9/9f/Figgy_Frogwich.png/revision/latest?cb=20210727103625</t>
+  </si>
+  <si>
+    <t>figkabab</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/73/Figkabab.png/revision/latest?cb=20210727103706</t>
+  </si>
+  <si>
+    <t>Makes the player imune to Wetness for 5 min</t>
+  </si>
+  <si>
+    <t>frogfishbowl</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/b2/Fish_Cordon_Bleu.png/revision/latest?cb=20190725213513</t>
+  </si>
+  <si>
+    <t>Fishsticks</t>
+  </si>
+  <si>
+    <t>fishsticks</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/4/4d/Fishsticks.png/revision/latest?cb=20121216000843</t>
+  </si>
+  <si>
+    <t>Corns</t>
+  </si>
+  <si>
+    <t>fishtacos</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/af/Fish_Tacos.png/revision/latest?cb=20121216094542</t>
+  </si>
+  <si>
+    <t>Fist Full of Jam</t>
+  </si>
+  <si>
+    <t>jammypreserves</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/27/Fist_Full_of_Jam.png/revision/latest?cb=20130117000604</t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t>Sweetener</t>
+  </si>
+  <si>
+    <t>flowersalad</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/d8/Flower_Salad.png/revision/latest?cb=20140417062405</t>
+  </si>
+  <si>
+    <t>anti5</t>
+  </si>
+  <si>
+    <t>"+165 hunger for Wes"</t>
+  </si>
+  <si>
+    <t>freshfruitcrepes</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/14/Fresh_Fruit_Crepes.png/revision/latest?cb=20160226072816</t>
+  </si>
+  <si>
+    <t>frogglebunwich</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/2b/Froggle_Bunwich.png/revision/latest?cb=20121216094905</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>"-15 for 15 seconds"</t>
+  </si>
+  <si>
+    <t>frozen-bananadaiquiri</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/d3/Frozen_Banana_Daiquiri.png/revision/latest?cb=20220713232819</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>fruitmedley</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/3/34/Fruit_Medley.png/revision/latest?cb=20121216095533</t>
+  </si>
+  <si>
+    <t>Emits light upon consumption</t>
+  </si>
+  <si>
+    <t>glowberrymousse</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/18/Glow_Berry_Mousse.png/revision/latest?cb=20190725213514</t>
+  </si>
+  <si>
+    <t>Swaps the player's current Health and Sanity</t>
+  </si>
+  <si>
+    <t>nightmarepie</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e5/Grim_Galette.png/revision/latest?cb=20190725213514</t>
+  </si>
+  <si>
+    <t>Mole</t>
+  </si>
+  <si>
+    <t>honeyham</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/6/6b/Honey_Ham.png/revision/latest?cb=20121216095929</t>
+  </si>
+  <si>
+    <t>"+52.5 hunger for Woody"</t>
+  </si>
+  <si>
+    <t>honeynuggets</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/1b/Honey_Nuggets.png/revision/latest?cb=20130117000531</t>
+  </si>
+  <si>
+    <t>Honeycomb</t>
+  </si>
+  <si>
+    <t>Fried Tallbird Egg</t>
+  </si>
+  <si>
+    <t>"+40 for 5 minutes"</t>
+  </si>
+  <si>
+    <t>dragonchilisalad</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/15/Hot_Dragon_Chili_Salad.png/revision/latest?cb=20190725213515</t>
+  </si>
+  <si>
+    <t>"+40 for Webber"</t>
+  </si>
+  <si>
+    <t>icecream</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/5/5d/Ice_Cream.png/revision/latest?cb=20140421080109</t>
+  </si>
+  <si>
+    <t>Monster Foods</t>
+  </si>
+  <si>
+    <t>"+125 health in 2 minutes"</t>
+  </si>
+  <si>
+    <t>jellybean</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/db/Jellybeans.png/revision/latest?cb=20161105175356</t>
+  </si>
+  <si>
+    <t>leafymeatsouffle</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/ed/Jelly_Salad.png/revision/latest?cb=20200702184438</t>
+  </si>
+  <si>
+    <t>kabobs</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/4/46/Kabobs.png/revision/latest?cb=20121216101957</t>
+  </si>
+  <si>
+    <t>Using two sweetener as filler will result in Jelly Salad instead.</t>
+  </si>
+  <si>
+    <t>leafloaf</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/a3/Leafy_Meatloaf.png/revision/latest?cb=20200702184349</t>
+  </si>
+  <si>
+    <t>Wobster</t>
+  </si>
+  <si>
+    <t>lobsterbisque</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/2f/Wobster_Bisque_%28DST%29.png/revision/latest?cb=20200416191449</t>
+  </si>
+  <si>
+    <t>"+52.5 hunger for Maxwell"</t>
+  </si>
+  <si>
+    <t>lobsterdinner</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/c/c9/Wobster_Dinner_%28DST%29.png/revision/latest?cb=20200416191528</t>
+  </si>
+  <si>
+    <t>Mandrakes are rare and nonrenewable.</t>
+  </si>
+  <si>
+    <t>mandrakesoup</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e2/Mandrake_Soup.png/revision/latest?cb=20121216102448</t>
+  </si>
+  <si>
+    <t>meatballs</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/bf/Meatballs.png/revision/latest?cb=20130117000546</t>
+  </si>
+  <si>
+    <t>More than 1 monster meat will result in Monster Lasagna</t>
+  </si>
+  <si>
+    <t>bonestew</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/d4/Meaty_Stew.png/revision/latest?cb=20121215201357</t>
+  </si>
+  <si>
+    <t>watermelonicle</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/0/0f/Melonsicle.png/revision/latest?cb=20140417075818</t>
+  </si>
+  <si>
+    <t>Naked Nostrils</t>
+  </si>
+  <si>
+    <t>"-1.33 sanity per minute"</t>
+  </si>
+  <si>
+    <t>"+1.33 sanity per minute for Wurt"</t>
+  </si>
+  <si>
+    <t>Wearable</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>4 min when used</t>
+  </si>
+  <si>
+    <t>Notes1</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>"Restores 187.5 hunger in 4 minutes"</t>
+  </si>
+  <si>
+    <t>batnosehat</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/27/Milkmade_Hat.png/revision/latest?cb=20201015200734</t>
+  </si>
+  <si>
+    <t>"Debuffs do not apply to Webber"</t>
+  </si>
+  <si>
+    <t>monsterlasagna</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/f/f9/Monster_Lasagna.png/revision/latest?cb=20130130101155</t>
+  </si>
+  <si>
+    <t>monstertartare</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/2d/Monster_Tartare.png/revision/latest?cb=20160226072906</t>
+  </si>
+  <si>
+    <t>moqueca</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/bb/Moqueca.png/revision/latest?cb=20190725213515</t>
+  </si>
+  <si>
+    <t>Moon Shroom</t>
+  </si>
+  <si>
+    <t>shroomcake</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/8/8c/Mushy_Cake.png/revision/latest?cb=20201015201345</t>
+  </si>
+  <si>
+    <t>perogies</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/9/91/Pierogi.png/revision/latest?cb=20200924180547</t>
+  </si>
+  <si>
+    <t>justeggs</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/7c/Plain_Omelette.png/revision/latest?cb=20221023194307</t>
+  </si>
+  <si>
+    <t>powcake</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/1/1f/Powdercake.png/revision/latest?cb=20130519194745</t>
+  </si>
+  <si>
+    <t>potatosouffle</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/b9/Puffed_Potato_Souffl%C3%A9.png/revision/latest?cb=20190725213516</t>
+  </si>
+  <si>
+    <t>pumpkincookie</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/c/c5/Pumpkin_Cookies.png/revision/latest?cb=20130422151715</t>
+  </si>
+  <si>
+    <t>Ratatouille*</t>
+  </si>
+  <si>
+    <t>ratatouille</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/b/b0/Ratatouille.png/revision/latest?cb=20121216142031</t>
+  </si>
+  <si>
+    <t>salsa</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/0/07/Salsa_Fresca.png/revision/latest?cb=20190725213516</t>
+  </si>
+  <si>
+    <t>Eels</t>
+  </si>
+  <si>
+    <t>seafoodgumbo</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/f/fc/Seafood_Gumbo.png/revision/latest?cb=20151208105755</t>
+  </si>
+  <si>
+    <t>"+30 sanity in 1 minute"</t>
+  </si>
+  <si>
+    <t>"+5 for 5 seconds"</t>
+  </si>
+  <si>
+    <t>sweettea</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/7e/Soothing_Tea.png/revision/latest?cb=20201126210546</t>
+  </si>
+  <si>
+    <t>"+15 for 15 seconds"</t>
+  </si>
+  <si>
+    <t>"+52.5 hunger for Willow"</t>
+  </si>
+  <si>
+    <t>hotchili</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/76/Spicy_Chili.png/revision/latest?cb=20140423080548</t>
+  </si>
+  <si>
+    <t>Used to feed Beefalos</t>
+  </si>
+  <si>
+    <t>beefalofeed</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/c/c6/Steamed_Twigs.png/revision/latest?cb=20221023194528</t>
+  </si>
+  <si>
+    <t>stuffedeggplant</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/72/Stuffed_Eggplant.png/revision/latest?cb=20121216154947</t>
+  </si>
+  <si>
+    <t>barnaclestuffedfishhead</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/7/71/Stuffed_Fish_Heads.png/revision/latest?cb=20200702184311</t>
+  </si>
+  <si>
+    <t>pepperpopper</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/5/54/Stuffed_Pepper_Poppers.png/revision/latest?cb=20190725213516</t>
+  </si>
+  <si>
+    <t>"+52.5 hunber for Wickerbottom"</t>
+  </si>
+  <si>
+    <t>surfnturf</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/3/3a/Surf_%27n%27_Turf.png/revision/latest?cb=20151208110013</t>
+  </si>
+  <si>
+    <t>"+40 hunger for Wanda"</t>
+  </si>
+  <si>
+    <t>"+0 health for Wanda"</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>taffy</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/d/dc/Taffy.png/revision/latest?cb=20130316013808</t>
+  </si>
+  <si>
+    <t>talleggs</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/0/0c/Tall_scotch_eggs.png/revision/latest?cb=20221023221434</t>
+  </si>
+  <si>
+    <t>Roasted Birchnut</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>"+27.5 hunger for Walter"</t>
+  </si>
+  <si>
+    <t>trailmix</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/f/f8/Trail_Mix.png/revision/latest?cb=20140417132445</t>
+  </si>
+  <si>
+    <t>"+90 hunger for Wigfrid"</t>
+  </si>
+  <si>
+    <t>turkeydinner</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e6/Turkey_Dinner.png/revision/latest?cb=20121216162543</t>
+  </si>
+  <si>
+    <t>"+40 hunger for Winona"</t>
+  </si>
+  <si>
+    <t>unagi</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/3/36/Unagi.png/revision/latest?cb=20130926222900</t>
+  </si>
+  <si>
+    <t>vegstinger</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/8/8c/Spicy_Vegetable_Stinger.png/revision/latest?cb=20181021191546</t>
+  </si>
+  <si>
+    <t>leafymeatburger</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/2/25/Veggie_Burger.png/revision/latest?cb=20200702184415</t>
+  </si>
+  <si>
+    <t>"Turns damage caused by player into electrical damage for 5 minutes."</t>
+  </si>
+  <si>
+    <t>voltgoatJelly</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/6/60/Volt_Goat_Chaud-Froid.png/revision/latest?cb=20190725213517</t>
+  </si>
+  <si>
+    <t>waffles</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/e/e8/Waffles.png/revision/latest?cb=20121216162615</t>
+  </si>
+  <si>
+    <t>Made by combining any ingredients that don't produce any other foods.</t>
+  </si>
+  <si>
+    <t>Used for crafting Terra Firma Tamper</t>
+  </si>
+  <si>
+    <t>wetgoop</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/dont-starve-game/images/a/a8/Wet_Goop.png/revision/latest?cb=20121216162705</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,11 +1497,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A61271-92CA-3444-B094-6E5C25D34FB5}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +1832,7 @@
     <col min="2" max="2" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -806,8 +1842,11 @@
       <c r="C1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -815,72 +1854,72 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1051,371 +2090,407 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>101</v>
-      </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>115</v>
-      </c>
       <c r="B104" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>116</v>
-      </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>317</v>
+      </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>127</v>
-      </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1426,34 +2501,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E480F53-8A80-6F4D-9FE7-7866E8CFEE97}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AC88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="13" ySplit="24" topLeftCell="S71" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="Z79" sqref="Z79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="T1" t="s">
+        <v>224</v>
+      </c>
+      <c r="U1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X1" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="AB1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1470,23 +2607,5062 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O2" t="s">
+        <v>441</v>
+      </c>
+      <c r="P2" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>386</v>
+      </c>
+      <c r="R2" t="s">
+        <v>387</v>
+      </c>
+      <c r="S2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" t="s">
+        <v>217</v>
+      </c>
+      <c r="V2" t="s">
+        <v>231</v>
+      </c>
+      <c r="W2" t="s">
+        <v>223</v>
+      </c>
+      <c r="X2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA2" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="S3" t="s">
+        <v>259</v>
+      </c>
+      <c r="T3">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>40</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+      <c r="V4" t="s">
+        <v>232</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>40</v>
+      </c>
+      <c r="V5" t="s">
+        <v>232</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>18.75</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>40</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>235</v>
+      </c>
+      <c r="T7">
+        <v>10</v>
+      </c>
+      <c r="U7">
+        <v>40</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>40</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>20</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>235</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>40</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>20</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>12.5</v>
+      </c>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O9" t="s">
+        <v>244</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
+      </c>
+      <c r="U9">
+        <v>40</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>33</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>40</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>40</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>37.5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>30</v>
+      </c>
+      <c r="U12">
+        <v>40</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>10</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>37.5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>30</v>
+      </c>
+      <c r="U13">
+        <v>40</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14">
+        <v>37.5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>25</v>
+      </c>
+      <c r="U14">
+        <v>40</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" t="s">
+        <v>216</v>
+      </c>
+      <c r="S15" t="s">
+        <v>261</v>
+      </c>
+      <c r="T15">
+        <v>-4</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>25</v>
+      </c>
+      <c r="U16">
+        <v>40</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17">
+        <v>32</v>
+      </c>
+      <c r="L17">
+        <v>150</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>30</v>
+      </c>
+      <c r="U17">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s">
+        <v>232</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>10</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>37.5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>40</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>37.5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>40</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>20</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>37.5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>271</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>40</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>37.5</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>274</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>40</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>40</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>15</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>37.5</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>274</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>40</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>40</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>15</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>37.5</v>
+      </c>
+      <c r="M23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <v>20</v>
+      </c>
+      <c r="U23">
+        <v>40</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>10</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>10</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>280</v>
+      </c>
+      <c r="T24">
+        <v>20</v>
+      </c>
+      <c r="U24">
+        <v>40</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>37.5</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="T25">
+        <v>20</v>
+      </c>
+      <c r="U25">
+        <v>40</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>75</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>40</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>40</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>37.5</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="R27" t="s">
+        <v>291</v>
+      </c>
+      <c r="T27">
+        <v>10</v>
+      </c>
+      <c r="U27">
+        <v>40</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>10</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28">
+        <v>60</v>
+      </c>
+      <c r="L28">
+        <v>56.25</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>40</v>
+      </c>
+      <c r="U28">
+        <v>40</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>40</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>10</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="T29">
+        <v>30</v>
+      </c>
+      <c r="U29">
+        <v>40</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>40</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30">
+        <v>8</v>
+      </c>
+      <c r="L30">
+        <v>18.75</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>40</v>
+      </c>
+      <c r="W30" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>15</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>15</v>
+      </c>
+      <c r="T31">
+        <v>30</v>
+      </c>
+      <c r="U31">
+        <v>40</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>20</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>37.5</v>
+      </c>
+      <c r="M32">
+        <v>-10</v>
+      </c>
+      <c r="O32" t="s">
+        <v>304</v>
+      </c>
+      <c r="T32">
+        <v>30</v>
+      </c>
+      <c r="U32">
+        <v>40</v>
+      </c>
+      <c r="V32" t="s">
+        <v>232</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>40</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>307</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33">
+        <v>40</v>
+      </c>
+      <c r="L33">
+        <v>37.5</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>10</v>
+      </c>
+      <c r="U33">
+        <v>40</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>10</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" t="s">
+        <v>216</v>
+      </c>
+      <c r="K34">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>37.5</v>
+      </c>
+      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <v>40</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>10</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" t="s">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>37.5</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>40</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>15</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36">
+        <v>40</v>
+      </c>
+      <c r="L36">
+        <v>12.5</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>10</v>
+      </c>
+      <c r="U36">
+        <v>40</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>6</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>60</v>
+      </c>
+      <c r="L37">
+        <v>150</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="O37" t="s">
+        <v>321</v>
+      </c>
+      <c r="T37">
+        <v>30</v>
+      </c>
+      <c r="U37">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s">
+        <v>232</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="E38" t="s">
+        <v>216</v>
+      </c>
+      <c r="K38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>37.5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>40</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>15</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" t="s">
+        <v>216</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <v>18.75</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>327</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>40</v>
+      </c>
+      <c r="W39" t="b">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>20</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>15</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>330</v>
+      </c>
+      <c r="C40" t="s">
+        <v>330</v>
+      </c>
+      <c r="D40" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>40</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>331</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" t="s">
+        <v>229</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>37.5</v>
+      </c>
+      <c r="M41">
+        <v>10</v>
+      </c>
+      <c r="O41" t="s">
+        <v>333</v>
+      </c>
+      <c r="T41">
+        <v>30</v>
+      </c>
+      <c r="U41">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s">
+        <v>232</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>8</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" t="s">
+        <v>284</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>336</v>
+      </c>
+      <c r="T42">
+        <v>30</v>
+      </c>
+      <c r="U42">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s">
+        <v>232</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>10</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" t="s">
+        <v>243</v>
+      </c>
+      <c r="G43" t="s">
+        <v>339</v>
+      </c>
+      <c r="H43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>30</v>
+      </c>
+      <c r="L43">
+        <v>75</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>40</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>15</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>37.5</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>342</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>40</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>15</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="s">
+        <v>216</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45">
+        <v>-3</v>
+      </c>
+      <c r="L45">
+        <v>25</v>
+      </c>
+      <c r="M45">
+        <v>10</v>
+      </c>
+      <c r="N45" t="s">
+        <v>347</v>
+      </c>
+      <c r="T45">
+        <v>30</v>
+      </c>
+      <c r="U45">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s">
+        <v>232</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>15</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>15</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F46" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" t="s">
+        <v>316</v>
+      </c>
+      <c r="H46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>243</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>50</v>
+      </c>
+      <c r="N46" t="s">
+        <v>327</v>
+      </c>
+      <c r="O46" t="s">
+        <v>350</v>
+      </c>
+      <c r="T46">
+        <v>10</v>
+      </c>
+      <c r="U46">
+        <v>40</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>10</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>354</v>
+      </c>
+      <c r="T47">
+        <v>12</v>
+      </c>
+      <c r="U47">
+        <v>40</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>50</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E48" t="s">
+        <v>317</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>37.5</v>
+      </c>
+      <c r="M48">
+        <v>50</v>
+      </c>
+      <c r="T48">
+        <v>50</v>
+      </c>
+      <c r="U48">
+        <v>40</v>
+      </c>
+      <c r="W48" t="b">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>6</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>37.5</v>
+      </c>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="T49">
+        <v>5</v>
+      </c>
+      <c r="U49">
+        <v>40</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>15</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" t="s">
+        <v>216</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+      <c r="L50">
+        <v>37.5</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s">
+        <v>361</v>
+      </c>
+      <c r="T50">
+        <v>25</v>
+      </c>
+      <c r="U50">
+        <v>40</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>20</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" t="s">
+        <v>364</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
+      <c r="E51" t="s">
+        <v>216</v>
+      </c>
+      <c r="K51">
+        <v>60</v>
+      </c>
+      <c r="L51">
+        <v>25</v>
+      </c>
+      <c r="M51">
+        <v>10</v>
+      </c>
+      <c r="T51">
+        <v>30</v>
+      </c>
+      <c r="U51">
+        <v>40</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>10</v>
+      </c>
+      <c r="Y51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>10</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>216</v>
+      </c>
+      <c r="K52">
+        <v>60</v>
+      </c>
+      <c r="L52">
+        <v>37.5</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="O52" t="s">
+        <v>367</v>
+      </c>
+      <c r="T52">
+        <v>25</v>
+      </c>
+      <c r="U52">
+        <v>40</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>20</v>
+      </c>
+      <c r="Y52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA52">
+        <v>15</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+      <c r="L53">
+        <v>150</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="R53" t="s">
+        <v>370</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53">
+        <v>40</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>60</v>
+      </c>
+      <c r="Y53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA53">
+        <v>6</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" t="s">
+        <v>243</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>62.5</v>
+      </c>
+      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="T54">
+        <v>-1</v>
+      </c>
+      <c r="U54">
+        <v>40</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>15</v>
+      </c>
+      <c r="Y54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>10</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" t="s">
+        <v>216</v>
+      </c>
+      <c r="F55" t="s">
+        <v>243</v>
+      </c>
+      <c r="G55" t="s">
+        <v>317</v>
+      </c>
+      <c r="H55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I55" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>150</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s">
+        <v>375</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>40</v>
+      </c>
+      <c r="W55" t="b">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>15</v>
+      </c>
+      <c r="Y55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>10</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" t="s">
+        <v>229</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>316</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>12.5</v>
+      </c>
+      <c r="M56">
+        <v>20</v>
+      </c>
+      <c r="N56" t="s">
+        <v>281</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+      <c r="U56">
+        <v>40</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>10</v>
+      </c>
+      <c r="Y56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>3</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>382</v>
+      </c>
+      <c r="R57" t="s">
+        <v>388</v>
+      </c>
+      <c r="T57">
+        <v>55</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="W57" t="b">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>353</v>
+      </c>
+      <c r="C58" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+      <c r="F58" t="s">
+        <v>243</v>
+      </c>
+      <c r="K58">
+        <v>-20</v>
+      </c>
+      <c r="L58">
+        <v>37.5</v>
+      </c>
+      <c r="M58">
+        <v>-20</v>
+      </c>
+      <c r="O58" t="s">
+        <v>391</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+      <c r="U58">
+        <v>40</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>10</v>
+      </c>
+      <c r="Y58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>10</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" t="s">
+        <v>216</v>
+      </c>
+      <c r="K59">
+        <v>-20</v>
+      </c>
+      <c r="L59">
+        <v>62.5</v>
+      </c>
+      <c r="M59">
+        <v>-20</v>
+      </c>
+      <c r="T59">
+        <v>30</v>
+      </c>
+      <c r="U59">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s">
+        <v>232</v>
+      </c>
+      <c r="W59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>10</v>
+      </c>
+      <c r="Y59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60">
+        <v>60</v>
+      </c>
+      <c r="L60">
+        <v>112.5</v>
+      </c>
+      <c r="M60">
+        <v>33</v>
+      </c>
+      <c r="T60">
+        <v>30</v>
+      </c>
+      <c r="U60">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s">
+        <v>232</v>
+      </c>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>8</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>55</v>
+      </c>
+      <c r="U61">
+        <v>40</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>15</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>187</v>
+      </c>
+      <c r="B62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62">
+        <v>40</v>
+      </c>
+      <c r="L62">
+        <v>37.5</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>5</v>
+      </c>
+      <c r="U62">
+        <v>40</v>
+      </c>
+      <c r="W62" t="b">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>20</v>
+      </c>
+      <c r="Y62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>20</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>50</v>
+      </c>
+      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>40</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>20</v>
+      </c>
+      <c r="Y63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>216</v>
+      </c>
+      <c r="K64">
+        <v>-3</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>10</v>
+      </c>
+      <c r="U64">
+        <v>40</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>10</v>
+      </c>
+      <c r="Y64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>18750</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>37.5</v>
+      </c>
+      <c r="M65">
+        <v>15</v>
+      </c>
+      <c r="T65">
+        <v>30</v>
+      </c>
+      <c r="U65">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s">
+        <v>232</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA65">
+        <v>10</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>216</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>37.5</v>
+      </c>
+      <c r="M66">
+        <v>15</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+      <c r="U66">
+        <v>40</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA66">
+        <v>10</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>411</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>216</v>
+      </c>
+      <c r="F67" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" t="s">
+        <v>287</v>
+      </c>
+      <c r="H67" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>40</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>20</v>
+      </c>
+      <c r="Y67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA67">
+        <v>15</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+      <c r="F68" t="s">
+        <v>316</v>
+      </c>
+      <c r="G68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" t="s">
+        <v>229</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>25</v>
+      </c>
+      <c r="M68">
+        <v>33</v>
+      </c>
+      <c r="T68">
+        <v>20</v>
+      </c>
+      <c r="U68">
+        <v>40</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>10</v>
+      </c>
+      <c r="Y68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA68">
+        <v>15</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" t="s">
+        <v>279</v>
+      </c>
+      <c r="D69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" t="s">
+        <v>216</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+      <c r="L69">
+        <v>37.5</v>
+      </c>
+      <c r="M69">
+        <v>20</v>
+      </c>
+      <c r="T69">
+        <v>10</v>
+      </c>
+      <c r="U69">
+        <v>40</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>20</v>
+      </c>
+      <c r="Y69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA69">
+        <v>10</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D70" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" t="s">
+        <v>316</v>
+      </c>
+      <c r="H70" t="s">
+        <v>115</v>
+      </c>
+      <c r="I70" t="s">
+        <v>127</v>
+      </c>
+      <c r="J70" t="s">
+        <v>58</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>15</v>
+      </c>
+      <c r="N70" t="s">
+        <v>420</v>
+      </c>
+      <c r="O70" t="s">
+        <v>419</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="W70" t="b">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>20</v>
+      </c>
+      <c r="Y70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA70">
+        <v>3</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71">
+        <v>20</v>
+      </c>
+      <c r="L71">
+        <v>37.5</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
+        <v>423</v>
+      </c>
+      <c r="O71" t="s">
+        <v>424</v>
+      </c>
+      <c r="T71">
+        <v>10</v>
+      </c>
+      <c r="U71">
+        <v>40</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>10</v>
+      </c>
+      <c r="Y71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA71">
+        <v>10</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>216</v>
+      </c>
+      <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
+        <v>316</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72">
+        <v>15</v>
+      </c>
+      <c r="L72">
+        <v>100</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="S72" t="s">
+        <v>427</v>
+      </c>
+      <c r="T72">
+        <v>-5</v>
+      </c>
+      <c r="U72">
+        <v>40</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>10</v>
+      </c>
+      <c r="Y72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>10</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>428</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" t="s">
+        <v>216</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>37.5</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>40</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>15</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" t="s">
+        <v>254</v>
+      </c>
+      <c r="C74" t="s">
+        <v>279</v>
+      </c>
+      <c r="D74" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" t="s">
+        <v>216</v>
+      </c>
+      <c r="K74">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>75</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>25</v>
+      </c>
+      <c r="U74">
+        <v>40</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <v>3</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C75" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" t="s">
+        <v>216</v>
+      </c>
+      <c r="F75" t="s">
+        <v>243</v>
+      </c>
+      <c r="K75">
+        <v>30</v>
+      </c>
+      <c r="L75">
+        <v>25</v>
+      </c>
+      <c r="M75">
+        <v>-5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>423</v>
+      </c>
+      <c r="T75">
+        <v>20</v>
+      </c>
+      <c r="U75">
+        <v>40</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <v>15</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" t="s">
+        <v>229</v>
+      </c>
+      <c r="C76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76">
+        <v>60</v>
+      </c>
+      <c r="L76">
+        <v>37.5</v>
+      </c>
+      <c r="M76">
+        <v>33</v>
+      </c>
+      <c r="O76" t="s">
+        <v>436</v>
+      </c>
+      <c r="T76">
+        <v>30</v>
+      </c>
+      <c r="U76">
+        <v>40</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>20</v>
+      </c>
+      <c r="Y76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <v>10</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>437</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" t="s">
+        <v>317</v>
+      </c>
+      <c r="C77" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" t="s">
+        <v>229</v>
+      </c>
+      <c r="K77">
+        <v>-3</v>
+      </c>
+      <c r="L77">
+        <v>25</v>
+      </c>
+      <c r="M77">
+        <v>15</v>
+      </c>
+      <c r="O77" t="s">
+        <v>439</v>
+      </c>
+      <c r="P77" t="s">
+        <v>440</v>
+      </c>
+      <c r="T77">
+        <v>10</v>
+      </c>
+      <c r="U77">
+        <v>40</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>15</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>443</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" t="s">
+        <v>216</v>
+      </c>
+      <c r="K78">
+        <v>60</v>
+      </c>
+      <c r="L78">
+        <v>150</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="T78">
+        <v>10</v>
+      </c>
+      <c r="U78">
+        <v>40</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>15</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>445</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>447</v>
+      </c>
+      <c r="C79" t="s">
+        <v>448</v>
+      </c>
+      <c r="D79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" t="s">
+        <v>229</v>
+      </c>
+      <c r="G79" t="s">
+        <v>58</v>
+      </c>
+      <c r="H79" t="s">
+        <v>316</v>
+      </c>
+      <c r="I79" t="s">
+        <v>115</v>
+      </c>
+      <c r="K79">
+        <v>30</v>
+      </c>
+      <c r="L79">
+        <v>12.5</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>449</v>
+      </c>
+      <c r="T79">
+        <v>10</v>
+      </c>
+      <c r="U79">
+        <v>40</v>
+      </c>
+      <c r="W79" t="b">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>10</v>
+      </c>
+      <c r="Y79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>15</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>229</v>
+      </c>
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>75</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>452</v>
+      </c>
+      <c r="T80">
+        <v>10</v>
+      </c>
+      <c r="U80">
+        <v>40</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>60</v>
+      </c>
+      <c r="Y80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>6</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81">
+        <v>20</v>
+      </c>
+      <c r="L81">
+        <v>75</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>452</v>
+      </c>
+      <c r="T81">
+        <v>10</v>
+      </c>
+      <c r="U81">
+        <v>40</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>60</v>
+      </c>
+      <c r="Y81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>6</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>453</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" t="s">
+        <v>216</v>
+      </c>
+      <c r="K82">
+        <v>20</v>
+      </c>
+      <c r="L82">
+        <v>18.75</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>20</v>
+      </c>
+      <c r="U82">
+        <v>40</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>10</v>
+      </c>
+      <c r="Y82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>10</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>206</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" t="s">
+        <v>316</v>
+      </c>
+      <c r="H83" t="s">
+        <v>127</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83">
+        <v>25</v>
+      </c>
+      <c r="M83">
+        <v>33</v>
+      </c>
+      <c r="O83" t="s">
+        <v>455</v>
+      </c>
+      <c r="T83">
+        <v>15</v>
+      </c>
+      <c r="U83">
+        <v>40</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>10</v>
+      </c>
+      <c r="Y83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA83">
+        <v>15</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" t="s">
+        <v>316</v>
+      </c>
+      <c r="H84" t="s">
+        <v>127</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>25</v>
+      </c>
+      <c r="M84">
+        <v>33</v>
+      </c>
+      <c r="O84" t="s">
+        <v>455</v>
+      </c>
+      <c r="T84">
+        <v>15</v>
+      </c>
+      <c r="U84">
+        <v>40</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>10</v>
+      </c>
+      <c r="Y84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>15</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" t="s">
+        <v>216</v>
+      </c>
+      <c r="K85">
+        <v>30</v>
+      </c>
+      <c r="L85">
+        <v>37.5</v>
+      </c>
+      <c r="M85">
+        <v>33</v>
+      </c>
+      <c r="T85">
+        <v>25</v>
+      </c>
+      <c r="U85">
+        <v>40</v>
+      </c>
+      <c r="W85" t="b">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA85">
+        <v>6</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>460</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" t="s">
+        <v>317</v>
+      </c>
+      <c r="D86" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" t="s">
+        <v>216</v>
+      </c>
+      <c r="F86" t="s">
+        <v>229</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>37.5</v>
+      </c>
+      <c r="M86">
+        <v>10</v>
+      </c>
+      <c r="O86" t="s">
+        <v>462</v>
+      </c>
+      <c r="T86">
+        <v>30</v>
+      </c>
+      <c r="U86">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s">
+        <v>232</v>
+      </c>
+      <c r="W86" t="b">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA86">
+        <v>10</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>463</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" t="s">
+        <v>316</v>
+      </c>
+      <c r="D87" t="s">
+        <v>448</v>
+      </c>
+      <c r="E87" t="s">
+        <v>216</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+      <c r="L87">
+        <v>37.5</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <v>10</v>
+      </c>
+      <c r="U87">
+        <v>40</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>10</v>
+      </c>
+      <c r="Y87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA87">
+        <v>6</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>465</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" t="s">
+        <v>216</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>467</v>
+      </c>
+      <c r="R88" t="s">
+        <v>468</v>
+      </c>
+      <c r="T88">
+        <v>-2</v>
+      </c>
+      <c r="U88">
+        <v>40</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>10</v>
+      </c>
+      <c r="Y88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA88">
+        <v>6</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>469</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>